--- a/output_analysis/SPREAD_1_SEC_5.0_ENERGY_1.5_EV-FACTOR_16_EV_2_FLEX_300_TPS.txt.xlsx
+++ b/output_analysis/SPREAD_1_SEC_5.0_ENERGY_1.5_EV-FACTOR_16_EV_2_FLEX_300_TPS.txt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,236 +434,340 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle-ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Trips</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Vehicle-ID</t>
+          <t>Number of Trips</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Trips</t>
+          <t>Sequential Coverage</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Distances</t>
+          <t>Ride-share Coverage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Individual Coverages</t>
+          <t>Individual Coverage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Individual Energy</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Ride-share Energy</t>
+          <t>Individual Cars</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8 31 35 55 80 209</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>47 97 142 212 268</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>96</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
       </c>
       <c r="F2" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>12 37 68 109 125</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>93</v>
+      </c>
+      <c r="E3" t="n">
+        <v>98</v>
+      </c>
+      <c r="F3" t="n">
+        <v>22</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>44 60 70 99 151</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>87</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>91 116 147 169 212</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>85</v>
+      </c>
+      <c r="E5" t="n">
+        <v>98</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>104 111 127</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>56</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>22</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>138 143 168 171 194 202</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
         <v>86</v>
       </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>52 96 128 149</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>62</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="E7" t="n">
+        <v>96</v>
+      </c>
+      <c r="F7" t="n">
+        <v>25</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>170 179 187 239 267</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>67</v>
+      </c>
+      <c r="E8" t="n">
+        <v>98</v>
+      </c>
+      <c r="F8" t="n">
+        <v>22</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>259 277</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="D9" t="n">
+        <v>37</v>
+      </c>
+      <c r="E9" t="n">
+        <v>72</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11</v>
+      </c>
+      <c r="G9" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>24</v>
+      </c>
+      <c r="E10" t="n">
+        <v>48</v>
+      </c>
+      <c r="F10" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>105 148 168 176 183 207 216</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>98</v>
-      </c>
-      <c r="F4" t="n">
-        <v>96</v>
-      </c>
-      <c r="G4" t="n">
-        <v>98</v>
-      </c>
-      <c r="H4" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>182 219 235</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>90</v>
-      </c>
-      <c r="F5" t="n">
-        <v>59</v>
-      </c>
-      <c r="G5" t="n">
-        <v>90</v>
-      </c>
-      <c r="H5" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" t="n">
+        <v>40</v>
+      </c>
+      <c r="F11" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>234 267 270</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>90</v>
-      </c>
-      <c r="F6" t="n">
-        <v>52</v>
-      </c>
-      <c r="G6" t="n">
-        <v>90</v>
-      </c>
-      <c r="H6" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>243 251 260 276</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>80</v>
-      </c>
-      <c r="F7" t="n">
-        <v>54</v>
-      </c>
-      <c r="G7" t="n">
-        <v>80</v>
-      </c>
-      <c r="H7" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>261 275</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>52</v>
-      </c>
-      <c r="F8" t="n">
-        <v>26</v>
-      </c>
-      <c r="G8" t="n">
-        <v>52</v>
-      </c>
-      <c r="H8" t="n">
-        <v>26</v>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>21</v>
+      </c>
+      <c r="E12" t="n">
+        <v>40</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>21</v>
+      </c>
+      <c r="E13" t="n">
+        <v>32</v>
+      </c>
+      <c r="F13" t="n">
+        <v>13</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
